--- a/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/FRANCISCO LARREA.xlsx
+++ b/NRFM_Auditoria/NRFM_Auditoria/bin/Debug/net8.0-windows/Extracciones/4-2024/FRANCISCO LARREA.xlsx
@@ -16,7 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
+    <x:t>NR Finance Mexico</x:t>
+  </x:si>
+  <x:si>
     <x:t>CSYSO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Certificacion de usuarios 2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reporte de usuarios</x:t>
   </x:si>
   <x:si>
     <x:t>VAZQUEZ MACIAS ANA LIBERT</x:t>
@@ -242,10 +251,18 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="16"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
@@ -259,7 +276,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="1">
+  <x:borders count="2">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -277,14 +294,45 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thin">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -588,564 +636,601 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="6.567768" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.996339" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="9.139196" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="40.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="13.996339" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="24.139196" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="8.853482" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="18.567768" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="1" spans="1:9">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9">
+      <x:c r="D2" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9">
+      <x:c r="D3" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="D4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="1:9">
-      <x:c r="A5" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="A5" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
+      <x:c r="D5" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I5" s="0" t="s">
+      <x:c r="F5" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
+      <x:c r="G5" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="6" spans="1:9">
-      <x:c r="A6" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="A6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I6" s="0" t="s">
+      <x:c r="C6" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s"/>
+      <x:c r="I6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9">
+      <x:c r="A7" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I7" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9">
+      <x:c r="A8" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:9">
-      <x:c r="A7" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
+      <x:c r="G8" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I8" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9">
+      <x:c r="A9" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="F9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I9" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:9">
+      <x:c r="A10" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="I7" s="0" t="s">
+      <x:c r="G10" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I10" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:9">
+      <x:c r="A11" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G11" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="I11" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9">
+      <x:c r="A12" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E12" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G12" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H12" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="I12" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:9">
+      <x:c r="A13" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G13" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:9">
+      <x:c r="A14" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E14" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G14" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H14" s="2" t="s"/>
+      <x:c r="I14" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:9">
+      <x:c r="A15" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="G15" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:9">
+      <x:c r="A16" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E16" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G16" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H16" s="2" t="s"/>
+      <x:c r="I16" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:9">
+      <x:c r="A17" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E17" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G17" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H17" s="2" t="s"/>
+      <x:c r="I17" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:9">
+      <x:c r="A18" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E18" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:9">
-      <x:c r="A8" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="G18" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H18" s="2" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I18" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:9">
+      <x:c r="A19" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G19" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H19" s="2" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I19" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:9">
+      <x:c r="A20" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E20" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F8" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:9">
-      <x:c r="A9" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:9">
-      <x:c r="A10" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:9">
-      <x:c r="A11" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:9">
-      <x:c r="A12" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
+      <x:c r="F20" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:9">
-      <x:c r="A13" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:9">
-      <x:c r="A14" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:9">
-      <x:c r="A15" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:9">
-      <x:c r="A16" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:9">
-      <x:c r="A17" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:9">
-      <x:c r="A18" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E18" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:9">
-      <x:c r="A19" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:9">
-      <x:c r="A20" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="G20" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H20" s="2" t="s"/>
+      <x:c r="I20" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:9">
-      <x:c r="A21" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
+      <x:c r="A21" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="I21" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="C21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E21" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G21" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="I21" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:9">
-      <x:c r="A22" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
+      <x:c r="A22" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="I22" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="C22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E22" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G22" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="I22" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:9">
-      <x:c r="A23" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
+      <x:c r="A23" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="I23" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E23" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="G23" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H23" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I23" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:9">
-      <x:c r="A24" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E24" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
+      <x:c r="A24" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="I24" s="0" t="s">
-        <x:v>8</x:v>
+      <x:c r="C24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E24" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G24" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H24" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="I24" s="2" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
